--- a/data/survey/population information/sample_size_calculation.xlsx
+++ b/data/survey/population information/sample_size_calculation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sioz\Desktop\arbeid\prosjektene\boligpreferanse\data\survey\population information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D07B3-933C-48D6-8DA7-6CCCEBB5A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A1E08-2257-45F3-A8DE-63429378A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08FD6E0E-FACC-4131-841E-0F463FC7E182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08FD6E0E-FACC-4131-841E-0F463FC7E182}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -183,6 +184,42 @@
   </si>
   <si>
     <t>Accounting for nonresponse</t>
+  </si>
+  <si>
+    <t>Jobber</t>
+  </si>
+  <si>
+    <t>ligger innen Karmøy</t>
+  </si>
+  <si>
+    <t>Samboer/ektefelle med barn</t>
+  </si>
+  <si>
+    <t>Enebolig</t>
+  </si>
+  <si>
+    <t>Selveier</t>
+  </si>
+  <si>
+    <t>Jobbforhold</t>
+  </si>
+  <si>
+    <t>Arbeidssted</t>
+  </si>
+  <si>
+    <t>Familiesituasjon</t>
+  </si>
+  <si>
+    <t>Boligtype</t>
+  </si>
+  <si>
+    <t>Eierform</t>
+  </si>
+  <si>
+    <t>Boligstørrelse</t>
+  </si>
+  <si>
+    <t>Antal soverom</t>
   </si>
 </sst>
 </file>
@@ -576,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF9B753-0153-4A99-BE73-C4F2C6561DDE}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,4 +985,212 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181EE8C-D5F3-44C4-A892-CCE82539C1E5}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>0.49</v>
+      </c>
+      <c r="F2">
+        <v>384</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F3">
+        <v>379</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>0.49</v>
+      </c>
+      <c r="F4">
+        <v>384</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>0.77</v>
+      </c>
+      <c r="F5">
+        <v>272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>0.81</v>
+      </c>
+      <c r="F6">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0.23</v>
+      </c>
+      <c r="F7">
+        <v>272</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0.38</v>
+      </c>
+      <c r="F8">
+        <v>362</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>